--- a/Practice Questions/2017E/Visualize/map.xlsx
+++ b/Practice Questions/2017E/Visualize/map.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github Repos\MIM2021\Practice Questions\2017E\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github Repos\MIM2021\Practice Questions\2017E\Visualize\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EE8A5D4-233A-4541-9B46-723CC49911E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B8125A3-6689-44F5-9876-E6BDDD6BCC69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16230" yWindow="2940" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16020" yWindow="2355" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="coordinate" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="871" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="873" uniqueCount="265">
   <si>
     <t>要素编号</t>
   </si>
@@ -1287,7 +1287,7 @@
   <dimension ref="A1:C134"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="A4" sqref="A4:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2759,8 +2759,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D3368D4-CA86-4BB5-9E4F-2C9014CE2BD4}">
   <dimension ref="A1:B351"/>
   <sheetViews>
-    <sheetView topLeftCell="A158" workbookViewId="0">
-      <selection activeCell="D168" sqref="D168"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5582,155 +5582,163 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{616075FC-565F-422F-B50F-23761B0FA3FA}">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>262</v>
-      </c>
-      <c r="B1" t="s">
-        <v>260</v>
+      <c r="A1" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>262</v>
+      </c>
+      <c r="B2" t="s">
         <v>260</v>
-      </c>
-      <c r="B2" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>260</v>
+      </c>
+      <c r="B3" t="s">
         <v>259</v>
-      </c>
-      <c r="B3" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>259</v>
+      </c>
+      <c r="B4" t="s">
         <v>258</v>
-      </c>
-      <c r="B4" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>258</v>
+      </c>
+      <c r="B5" t="s">
         <v>164</v>
-      </c>
-      <c r="B5" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>164</v>
+      </c>
+      <c r="B6" t="s">
         <v>257</v>
-      </c>
-      <c r="B6" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>257</v>
+      </c>
+      <c r="B7" t="s">
         <v>256</v>
-      </c>
-      <c r="B7" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>256</v>
+      </c>
+      <c r="B8" t="s">
         <v>255</v>
       </c>
-      <c r="B8" t="s">
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>255</v>
+      </c>
+      <c r="B9" t="s">
         <v>141</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>136</v>
-      </c>
-      <c r="B10" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>136</v>
+      </c>
+      <c r="B11" t="s">
         <v>137</v>
-      </c>
-      <c r="B11" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>137</v>
+      </c>
+      <c r="B12" t="s">
         <v>138</v>
-      </c>
-      <c r="B12" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>138</v>
+      </c>
+      <c r="B13" t="s">
         <v>252</v>
-      </c>
-      <c r="B13" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>252</v>
+      </c>
+      <c r="B14" t="s">
         <v>156</v>
-      </c>
-      <c r="B14" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>156</v>
+      </c>
+      <c r="B15" t="s">
         <v>251</v>
-      </c>
-      <c r="B15" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>251</v>
+      </c>
+      <c r="B16" t="s">
         <v>250</v>
-      </c>
-      <c r="B16" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
+        <v>250</v>
+      </c>
+      <c r="B17" t="s">
         <v>147</v>
-      </c>
-      <c r="B17" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
+        <v>147</v>
+      </c>
+      <c r="B18" t="s">
         <v>143</v>
-      </c>
-      <c r="B18" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
+        <v>143</v>
+      </c>
+      <c r="B19" t="s">
         <v>144</v>
       </c>
-      <c r="B19" t="s">
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>144</v>
+      </c>
+      <c r="B20" t="s">
         <v>249</v>
       </c>
     </row>
